--- a/ventas.xlsx
+++ b/ventas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,10 +1137,8 @@
           <t>Jose</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="D26" t="n">
+        <v>30</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1171,10 +1169,8 @@
           <t>Jose</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="D27" t="n">
+        <v>30</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1189,6 +1185,550 @@
       </c>
       <c r="H27" t="n">
         <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1705046158</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-01-11 23:55:58</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Pizza</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>500</v>
+      </c>
+      <c r="H28" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1705046158</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-01-11 23:55:58</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Hamburguesas</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>300</v>
+      </c>
+      <c r="H29" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1705046158</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-01-11 23:55:58</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Crostinis</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>50</v>
+      </c>
+      <c r="H30" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1705046158</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-01-11 23:55:58</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Cerveza</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>50</v>
+      </c>
+      <c r="H31" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1705046215</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-01-11 23:56:55</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Victor Hugo</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>15</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pizza</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>500</v>
+      </c>
+      <c r="H32" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1705046215</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-01-11 23:56:55</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Victor Hugo</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>15</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Hamburguesas</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>300</v>
+      </c>
+      <c r="H33" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1705046215</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-01-11 23:56:55</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Victor Hugo</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>15</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Crostinis</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>50</v>
+      </c>
+      <c r="H34" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1705046215</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-01-11 23:56:55</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Victor Hugo</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>15</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Cerveza</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>50</v>
+      </c>
+      <c r="H35" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1705048142</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-01-12 00:29:02</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Pizza</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>500</v>
+      </c>
+      <c r="H36" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1705048142</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-01-12 00:29:02</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Hamburguesas</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>300</v>
+      </c>
+      <c r="H37" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1705048142</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024-01-12 00:29:02</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Crostinis</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>50</v>
+      </c>
+      <c r="H38" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1705048142</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-01-12 00:29:02</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Cerveza</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>50</v>
+      </c>
+      <c r="H39" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1705048205</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2024-01-12 00:30:05</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Pizza</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>500</v>
+      </c>
+      <c r="H40" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1705048205</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-01-12 00:30:05</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Hamburguesas</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>300</v>
+      </c>
+      <c r="H41" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1705048205</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2024-01-12 00:30:05</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Crostinis</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>50</v>
+      </c>
+      <c r="H42" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1705048205</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2024-01-12 00:30:05</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Cerveza</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>50</v>
+      </c>
+      <c r="H43" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1705048668</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2024-01-12 00:37:48</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Pizza</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>500</v>
+      </c>
+      <c r="H44" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1705048668</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2024-01-12 00:37:48</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Hamburguesas</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>300</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1705048668</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2024-01-12 00:37:48</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Crostinis</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>50</v>
+      </c>
+      <c r="H46" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1705048668</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2024-01-12 00:37:48</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Cerveza</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" t="n">
+        <v>50</v>
+      </c>
+      <c r="H47" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
